--- a/Names.xlsx
+++ b/Names.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="10035" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>UID</t>
   </si>
@@ -44,7 +44,34 @@
     <t>000000000</t>
   </si>
   <si>
-    <t>AAAAA</t>
+    <t>魍魉哥布林</t>
+  </si>
+  <si>
+    <t>哥布林</t>
+  </si>
+  <si>
+    <t>000000001</t>
+  </si>
+  <si>
+    <t>客记譩乡✿҉͜</t>
+  </si>
+  <si>
+    <t>客记譩乡</t>
+  </si>
+  <si>
+    <t>客乡</t>
+  </si>
+  <si>
+    <t>000000002</t>
+  </si>
+  <si>
+    <t>哮九九泉٩۶</t>
+  </si>
+  <si>
+    <t>哮九九泉</t>
+  </si>
+  <si>
+    <t>哮九九</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1028,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1034,23 +1061,39 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5"/>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10035" windowHeight="9105"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="193">
   <si>
     <t>UID</t>
   </si>
@@ -44,34 +44,568 @@
     <t>000000000</t>
   </si>
   <si>
+    <t>少年哥布林</t>
+  </si>
+  <si>
+    <t>000000001</t>
+  </si>
+  <si>
+    <t>梦翼</t>
+  </si>
+  <si>
+    <t>000000002</t>
+  </si>
+  <si>
+    <t>寂寞</t>
+  </si>
+  <si>
+    <t>000000003</t>
+  </si>
+  <si>
+    <t>月亮是个凶手</t>
+  </si>
+  <si>
+    <t>000000004</t>
+  </si>
+  <si>
+    <t>蜜桃派</t>
+  </si>
+  <si>
+    <t>蜜桃</t>
+  </si>
+  <si>
+    <t>000000005</t>
+  </si>
+  <si>
+    <t>卡卡哥布林</t>
+  </si>
+  <si>
+    <t>000000006</t>
+  </si>
+  <si>
+    <t>雾里望神明</t>
+  </si>
+  <si>
+    <t>000000007</t>
+  </si>
+  <si>
+    <t>太陽是我捏圓滴</t>
+  </si>
+  <si>
+    <t>000000008</t>
+  </si>
+  <si>
+    <t>蓝桉</t>
+  </si>
+  <si>
+    <t>000000009</t>
+  </si>
+  <si>
+    <t>腊月青松挽波风</t>
+  </si>
+  <si>
+    <t>000000010</t>
+  </si>
+  <si>
     <t>魍魉哥布林</t>
   </si>
   <si>
     <t>哥布林</t>
   </si>
   <si>
-    <t>000000001</t>
-  </si>
-  <si>
-    <t>客记譩乡✿҉͜</t>
-  </si>
-  <si>
-    <t>客记譩乡</t>
-  </si>
-  <si>
-    <t>客乡</t>
-  </si>
-  <si>
-    <t>000000002</t>
-  </si>
-  <si>
-    <t>哮九九泉٩۶</t>
-  </si>
-  <si>
-    <t>哮九九泉</t>
-  </si>
-  <si>
-    <t>哮九九</t>
+    <t>000000011</t>
+  </si>
+  <si>
+    <t>汲川虎之助</t>
+  </si>
+  <si>
+    <t>000000012</t>
+  </si>
+  <si>
+    <t>小时哥布林</t>
+  </si>
+  <si>
+    <t>000000013</t>
+  </si>
+  <si>
+    <t>茶道ˇ无心晓博</t>
+  </si>
+  <si>
+    <t>000000014</t>
+  </si>
+  <si>
+    <t>更立西江石壁</t>
+  </si>
+  <si>
+    <t>000000015</t>
+  </si>
+  <si>
+    <t>烟火尽处是江湖</t>
+  </si>
+  <si>
+    <t>000000016</t>
+  </si>
+  <si>
+    <t>Blitheぃ星子</t>
+  </si>
+  <si>
+    <t>000000017</t>
+  </si>
+  <si>
+    <t>朱齐</t>
+  </si>
+  <si>
+    <t>000000018</t>
+  </si>
+  <si>
+    <t>昼酒</t>
+  </si>
+  <si>
+    <t>000000019</t>
+  </si>
+  <si>
+    <t>小羽殇呐</t>
+  </si>
+  <si>
+    <t>000000020</t>
+  </si>
+  <si>
+    <t>慕鲤</t>
+  </si>
+  <si>
+    <t>000000021</t>
+  </si>
+  <si>
+    <t>小鸡蘑菇陕靳靳</t>
+  </si>
+  <si>
+    <t>000000022</t>
+  </si>
+  <si>
+    <t>星之匙↺</t>
+  </si>
+  <si>
+    <t>000000023</t>
+  </si>
+  <si>
+    <t>点点喜欢线线</t>
+  </si>
+  <si>
+    <t>000000024</t>
+  </si>
+  <si>
+    <t>储九九</t>
+  </si>
+  <si>
+    <t>000000025</t>
+  </si>
+  <si>
+    <t>C·Ronaldo</t>
+  </si>
+  <si>
+    <t>000000026</t>
+  </si>
+  <si>
+    <t>江鹤·ོ苍雪</t>
+  </si>
+  <si>
+    <t>000000027</t>
+  </si>
+  <si>
+    <t>柠檬红柚</t>
+  </si>
+  <si>
+    <t>000000028</t>
+  </si>
+  <si>
+    <t>脑袋哥布林</t>
+  </si>
+  <si>
+    <t>000000029</t>
+  </si>
+  <si>
+    <t>且听风吟</t>
+  </si>
+  <si>
+    <t>000000030</t>
+  </si>
+  <si>
+    <t>❀纯欲百香果❀</t>
+  </si>
+  <si>
+    <t>000000031</t>
+  </si>
+  <si>
+    <t>阿鼠吖</t>
+  </si>
+  <si>
+    <t>000000032</t>
+  </si>
+  <si>
+    <t>忆缕烟</t>
+  </si>
+  <si>
+    <t>000000033</t>
+  </si>
+  <si>
+    <t>ぅ黛慕晴、</t>
+  </si>
+  <si>
+    <t>000000034</t>
+  </si>
+  <si>
+    <t>源</t>
+  </si>
+  <si>
+    <t>000000035</t>
+  </si>
+  <si>
+    <t>骤雨初歇</t>
+  </si>
+  <si>
+    <t>000000036</t>
+  </si>
+  <si>
+    <t>玩游戏要哮着玩</t>
+  </si>
+  <si>
+    <t>000000037</t>
+  </si>
+  <si>
+    <t>青团✿҉͜</t>
+  </si>
+  <si>
+    <t>000000038</t>
+  </si>
+  <si>
+    <t>可塑性记譩</t>
+  </si>
+  <si>
+    <t>000000039</t>
+  </si>
+  <si>
+    <t>忍、小贤</t>
+  </si>
+  <si>
+    <t>000000040</t>
+  </si>
+  <si>
+    <t>是星河酱吖٩۶</t>
+  </si>
+  <si>
+    <t>000000041</t>
+  </si>
+  <si>
+    <t>狂扁小朋友</t>
+  </si>
+  <si>
+    <t>000000042</t>
+  </si>
+  <si>
+    <t>绝世、白给牛仔</t>
+  </si>
+  <si>
+    <t>000000043</t>
+  </si>
+  <si>
+    <t>番茄牛腩四岁岁</t>
+  </si>
+  <si>
+    <t>000000044</t>
+  </si>
+  <si>
+    <t>茶道ˇ人生若梦</t>
+  </si>
+  <si>
+    <t>000000045</t>
+  </si>
+  <si>
+    <t>༒༺脸脸༻༒ </t>
+  </si>
+  <si>
+    <t>脸脸</t>
+  </si>
+  <si>
+    <t>000000046</t>
+  </si>
+  <si>
+    <t>青橙</t>
+  </si>
+  <si>
+    <t>000000047</t>
+  </si>
+  <si>
+    <t>酷爱蹲腿小洗头</t>
+  </si>
+  <si>
+    <t>000000048</t>
+  </si>
+  <si>
+    <t>北幻</t>
+  </si>
+  <si>
+    <t>000000049</t>
+  </si>
+  <si>
+    <t>白都·靓时之光</t>
+  </si>
+  <si>
+    <t>000000050</t>
+  </si>
+  <si>
+    <t>九公子</t>
+  </si>
+  <si>
+    <t>000000051</t>
+  </si>
+  <si>
+    <t>uid537001428</t>
+  </si>
+  <si>
+    <t>000000052</t>
+  </si>
+  <si>
+    <t>风尘恋酒浊因却</t>
+  </si>
+  <si>
+    <t>000000053</t>
+  </si>
+  <si>
+    <t>枫·零</t>
+  </si>
+  <si>
+    <t>000000054</t>
+  </si>
+  <si>
+    <t>望冬</t>
+  </si>
+  <si>
+    <t>000000055</t>
+  </si>
+  <si>
+    <t>莫负见川</t>
+  </si>
+  <si>
+    <t>000000056</t>
+  </si>
+  <si>
+    <t>奇洛李维斯</t>
+  </si>
+  <si>
+    <t>000000057</t>
+  </si>
+  <si>
+    <t>旋舞</t>
+  </si>
+  <si>
+    <t>000000058</t>
+  </si>
+  <si>
+    <t>最是人间留不住</t>
+  </si>
+  <si>
+    <t>000000059</t>
+  </si>
+  <si>
+    <t>孛子</t>
+  </si>
+  <si>
+    <t>000000060</t>
+  </si>
+  <si>
+    <t>放歌笙箫</t>
+  </si>
+  <si>
+    <t>000000061</t>
+  </si>
+  <si>
+    <t>卡丘剑圣星前辈</t>
+  </si>
+  <si>
+    <t>000000062</t>
+  </si>
+  <si>
+    <t>天官哥布林</t>
+  </si>
+  <si>
+    <t>000000063</t>
+  </si>
+  <si>
+    <t>時燼書</t>
+  </si>
+  <si>
+    <t>000000064</t>
+  </si>
+  <si>
+    <t>明月拂晓寻梦人</t>
+  </si>
+  <si>
+    <t>000000065</t>
+  </si>
+  <si>
+    <t>白都快乐风男</t>
+  </si>
+  <si>
+    <t>000000066</t>
+  </si>
+  <si>
+    <t>恩赐哥布林</t>
+  </si>
+  <si>
+    <t>000000067</t>
+  </si>
+  <si>
+    <t>安静o o</t>
+  </si>
+  <si>
+    <t>000000068</t>
+  </si>
+  <si>
+    <t>翼言</t>
+  </si>
+  <si>
+    <t>000000069</t>
+  </si>
+  <si>
+    <t>是芒果酱吖٩۶</t>
+  </si>
+  <si>
+    <t>000000070</t>
+  </si>
+  <si>
+    <t>青沐挽余寄笙歌</t>
+  </si>
+  <si>
+    <t>000000071</t>
+  </si>
+  <si>
+    <t>忧伤落笔映浮华</t>
+  </si>
+  <si>
+    <t>000000072</t>
+  </si>
+  <si>
+    <t>海渊·白发</t>
+  </si>
+  <si>
+    <t>000000073</t>
+  </si>
+  <si>
+    <t>全开猛撞小火马</t>
+  </si>
+  <si>
+    <t>000000074</t>
+  </si>
+  <si>
+    <t>七里香</t>
+  </si>
+  <si>
+    <t>000000075</t>
+  </si>
+  <si>
+    <t>坦克『钧墨』</t>
+  </si>
+  <si>
+    <t>000000076</t>
+  </si>
+  <si>
+    <t>我不是小饭团子</t>
+  </si>
+  <si>
+    <t>000000077</t>
+  </si>
+  <si>
+    <t>国迷</t>
+  </si>
+  <si>
+    <t>000000078</t>
+  </si>
+  <si>
+    <t>红烧绿豆</t>
+  </si>
+  <si>
+    <t>000000079</t>
+  </si>
+  <si>
+    <t>不来就是满了</t>
+  </si>
+  <si>
+    <t>000000080</t>
+  </si>
+  <si>
+    <t>许卿白头上上签</t>
+  </si>
+  <si>
+    <t>000000081</t>
+  </si>
+  <si>
+    <t>水芽</t>
+  </si>
+  <si>
+    <t>000000082</t>
+  </si>
+  <si>
+    <t>白上仙大王</t>
+  </si>
+  <si>
+    <t>000000083</t>
+  </si>
+  <si>
+    <t>白都·星火江湖</t>
+  </si>
+  <si>
+    <t>000000084</t>
+  </si>
+  <si>
+    <t>凉浸浸</t>
+  </si>
+  <si>
+    <t>000000085</t>
+  </si>
+  <si>
+    <t>要不要吃羊</t>
+  </si>
+  <si>
+    <t>000000086</t>
+  </si>
+  <si>
+    <t>幼稚园吃糖冠军</t>
+  </si>
+  <si>
+    <t>000000087</t>
+  </si>
+  <si>
+    <t>一派秋声入寥廓</t>
+  </si>
+  <si>
+    <t>000000088</t>
+  </si>
+  <si>
+    <t>智慧哥布林</t>
+  </si>
+  <si>
+    <t>000000089</t>
+  </si>
+  <si>
+    <t>豆豆只想混</t>
+  </si>
+  <si>
+    <t>000000090</t>
+  </si>
+  <si>
+    <t>方圆</t>
+  </si>
+  <si>
+    <t>000000091</t>
+  </si>
+  <si>
+    <t>仙喵喵</t>
+  </si>
+  <si>
+    <t>000000092</t>
+  </si>
+  <si>
+    <t>遮天、忏悔</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1561,8 @@
   <sheetPr/>
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1061,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -1069,571 +1603,1291 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="D6"/>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="A19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
+      <c r="A24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="A31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="A32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
+      <c r="A34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
+      <c r="A37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="A38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="A39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
+      <c r="A40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="A44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="A45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="A46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="A47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
+      <c r="A48" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="A51" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="A52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="A53" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="A55" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="A59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="A62" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="A64" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="A65" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="A67" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="A68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="A69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="A70" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="A71" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="A72" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="A73" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="A74" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="A75" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
+      <c r="A76" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="A77" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="A78" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="A79" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="A80" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="A81" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="A82" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="A83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="A84" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="A85" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="A86" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="A87" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="A88" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="A89" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="A90" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
+      <c r="A91" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="A92" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+      <c r="A93" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="A94" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Names.xlsx
+++ b/Names.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="10515" windowHeight="10275"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -41,31 +41,31 @@
     <t>OutputName</t>
   </si>
   <si>
-    <t>000000000</t>
+    <t>100014616</t>
   </si>
   <si>
     <t>少年哥布林</t>
   </si>
   <si>
-    <t>000000001</t>
+    <t>106954920</t>
   </si>
   <si>
     <t>梦翼</t>
   </si>
   <si>
-    <t>000000002</t>
+    <t>110068144</t>
   </si>
   <si>
     <t>寂寞</t>
   </si>
   <si>
-    <t>000000003</t>
+    <t>114917816</t>
   </si>
   <si>
     <t>月亮是个凶手</t>
   </si>
   <si>
-    <t>000000004</t>
+    <t>116368392</t>
   </si>
   <si>
     <t>蜜桃派</t>
@@ -74,37 +74,37 @@
     <t>蜜桃</t>
   </si>
   <si>
-    <t>000000005</t>
+    <t>116456784</t>
   </si>
   <si>
     <t>卡卡哥布林</t>
   </si>
   <si>
-    <t>000000006</t>
+    <t>117952704</t>
   </si>
   <si>
     <t>雾里望神明</t>
   </si>
   <si>
-    <t>000000007</t>
+    <t>120527480</t>
   </si>
   <si>
     <t>太陽是我捏圓滴</t>
   </si>
   <si>
-    <t>000000008</t>
+    <t>123170408</t>
   </si>
   <si>
     <t>蓝桉</t>
   </si>
   <si>
-    <t>000000009</t>
+    <t>124959432</t>
   </si>
   <si>
     <t>腊月青松挽波风</t>
   </si>
   <si>
-    <t>000000010</t>
+    <t>133474312</t>
   </si>
   <si>
     <t>魍魉哥布林</t>
@@ -113,211 +113,211 @@
     <t>哥布林</t>
   </si>
   <si>
-    <t>000000011</t>
+    <t>145985792</t>
   </si>
   <si>
     <t>汲川虎之助</t>
   </si>
   <si>
-    <t>000000012</t>
+    <t>200293713</t>
   </si>
   <si>
     <t>小时哥布林</t>
   </si>
   <si>
-    <t>000000013</t>
+    <t>200624505</t>
   </si>
   <si>
     <t>茶道ˇ无心晓博</t>
   </si>
   <si>
-    <t>000000014</t>
+    <t>201693497</t>
   </si>
   <si>
     <t>更立西江石壁</t>
   </si>
   <si>
-    <t>000000015</t>
+    <t>206139689</t>
   </si>
   <si>
     <t>烟火尽处是江湖</t>
   </si>
   <si>
-    <t>000000016</t>
+    <t>207691081</t>
   </si>
   <si>
     <t>Blitheぃ星子</t>
   </si>
   <si>
-    <t>000000017</t>
+    <t>214002905</t>
   </si>
   <si>
     <t>朱齐</t>
   </si>
   <si>
-    <t>000000018</t>
+    <t>215940073</t>
   </si>
   <si>
     <t>昼酒</t>
   </si>
   <si>
-    <t>000000019</t>
+    <t>216051465</t>
   </si>
   <si>
     <t>小羽殇呐</t>
   </si>
   <si>
-    <t>000000020</t>
+    <t>221081889</t>
   </si>
   <si>
     <t>慕鲤</t>
   </si>
   <si>
-    <t>000000021</t>
+    <t>222457545</t>
   </si>
   <si>
     <t>小鸡蘑菇陕靳靳</t>
   </si>
   <si>
-    <t>000000022</t>
+    <t>230461425</t>
   </si>
   <si>
     <t>星之匙↺</t>
   </si>
   <si>
-    <t>000000023</t>
+    <t>239354193</t>
   </si>
   <si>
     <t>点点喜欢线线</t>
   </si>
   <si>
-    <t>000000024</t>
+    <t>242779649</t>
   </si>
   <si>
     <t>储九九</t>
   </si>
   <si>
-    <t>000000025</t>
+    <t>300628746</t>
   </si>
   <si>
     <t>C·Ronaldo</t>
   </si>
   <si>
-    <t>000000026</t>
+    <t>301376298</t>
   </si>
   <si>
     <t>江鹤·ོ苍雪</t>
   </si>
   <si>
-    <t>000000027</t>
+    <t>308813322</t>
   </si>
   <si>
     <t>柠檬红柚</t>
   </si>
   <si>
-    <t>000000028</t>
+    <t>322829146</t>
   </si>
   <si>
     <t>脑袋哥布林</t>
   </si>
   <si>
-    <t>000000029</t>
+    <t>322987962</t>
   </si>
   <si>
     <t>且听风吟</t>
   </si>
   <si>
-    <t>000000030</t>
+    <t>328254218</t>
   </si>
   <si>
     <t>❀纯欲百香果❀</t>
   </si>
   <si>
-    <t>000000031</t>
+    <t>334686810</t>
   </si>
   <si>
     <t>阿鼠吖</t>
   </si>
   <si>
-    <t>000000032</t>
+    <t>341484514</t>
   </si>
   <si>
     <t>忆缕烟</t>
   </si>
   <si>
-    <t>000000033</t>
+    <t>400017491</t>
   </si>
   <si>
     <t>ぅ黛慕晴、</t>
   </si>
   <si>
-    <t>000000034</t>
+    <t>400027611</t>
   </si>
   <si>
     <t>源</t>
   </si>
   <si>
-    <t>000000035</t>
+    <t>400050827</t>
   </si>
   <si>
     <t>骤雨初歇</t>
   </si>
   <si>
-    <t>000000036</t>
+    <t>400635627</t>
   </si>
   <si>
     <t>玩游戏要哮着玩</t>
   </si>
   <si>
-    <t>000000037</t>
+    <t>406510339</t>
   </si>
   <si>
     <t>青团✿҉͜</t>
   </si>
   <si>
-    <t>000000038</t>
+    <t>410964267</t>
   </si>
   <si>
     <t>可塑性记譩</t>
   </si>
   <si>
-    <t>000000039</t>
+    <t>411393075</t>
   </si>
   <si>
     <t>忍、小贤</t>
   </si>
   <si>
-    <t>000000040</t>
+    <t>420661963</t>
   </si>
   <si>
     <t>是星河酱吖٩۶</t>
   </si>
   <si>
-    <t>000000041</t>
+    <t>421270923</t>
   </si>
   <si>
     <t>狂扁小朋友</t>
   </si>
   <si>
-    <t>000000042</t>
+    <t>450803371</t>
   </si>
   <si>
     <t>绝世、白给牛仔</t>
   </si>
   <si>
-    <t>000000043</t>
+    <t>502943940</t>
   </si>
   <si>
     <t>番茄牛腩四岁岁</t>
   </si>
   <si>
-    <t>000000044</t>
+    <t>503711692</t>
   </si>
   <si>
     <t>茶道ˇ人生若梦</t>
   </si>
   <si>
-    <t>000000045</t>
+    <t>509165668</t>
   </si>
   <si>
     <t>༒༺脸脸༻༒ </t>
@@ -326,283 +326,283 @@
     <t>脸脸</t>
   </si>
   <si>
-    <t>000000046</t>
+    <t>510039500</t>
   </si>
   <si>
     <t>青橙</t>
   </si>
   <si>
-    <t>000000047</t>
+    <t>512611228</t>
   </si>
   <si>
     <t>酷爱蹲腿小洗头</t>
   </si>
   <si>
-    <t>000000048</t>
+    <t>514987644</t>
   </si>
   <si>
     <t>北幻</t>
   </si>
   <si>
-    <t>000000049</t>
+    <t>519916884</t>
   </si>
   <si>
     <t>白都·靓时之光</t>
   </si>
   <si>
-    <t>000000050</t>
+    <t>529765740</t>
   </si>
   <si>
     <t>九公子</t>
   </si>
   <si>
-    <t>000000051</t>
+    <t>537001428</t>
   </si>
   <si>
     <t>uid537001428</t>
   </si>
   <si>
-    <t>000000052</t>
+    <t>551517324</t>
   </si>
   <si>
     <t>风尘恋酒浊因却</t>
   </si>
   <si>
-    <t>000000053</t>
+    <t>554163196</t>
   </si>
   <si>
     <t>枫·零</t>
   </si>
   <si>
-    <t>000000054</t>
+    <t>554767100</t>
   </si>
   <si>
     <t>望冬</t>
   </si>
   <si>
-    <t>000000055</t>
+    <t>600006613</t>
   </si>
   <si>
     <t>莫负见川</t>
   </si>
   <si>
-    <t>000000056</t>
+    <t>600009549</t>
   </si>
   <si>
     <t>奇洛李维斯</t>
   </si>
   <si>
-    <t>000000057</t>
+    <t>614281117</t>
   </si>
   <si>
     <t>旋舞</t>
   </si>
   <si>
-    <t>000000058</t>
+    <t>618517493</t>
   </si>
   <si>
     <t>最是人间留不住</t>
   </si>
   <si>
-    <t>000000059</t>
+    <t>620469901</t>
   </si>
   <si>
     <t>孛子</t>
   </si>
   <si>
-    <t>000000060</t>
+    <t>622353053</t>
   </si>
   <si>
     <t>放歌笙箫</t>
   </si>
   <si>
-    <t>000000061</t>
+    <t>622793269</t>
   </si>
   <si>
     <t>卡丘剑圣星前辈</t>
   </si>
   <si>
-    <t>000000062</t>
+    <t>648738637</t>
   </si>
   <si>
     <t>天官哥布林</t>
   </si>
   <si>
-    <t>000000063</t>
+    <t>651525557</t>
   </si>
   <si>
     <t>時燼書</t>
   </si>
   <si>
-    <t>000000064</t>
+    <t>653749901</t>
   </si>
   <si>
     <t>明月拂晓寻梦人</t>
   </si>
   <si>
-    <t>000000065</t>
+    <t>700053742</t>
   </si>
   <si>
     <t>白都快乐风男</t>
   </si>
   <si>
-    <t>000000066</t>
+    <t>700370406</t>
   </si>
   <si>
     <t>恩赐哥布林</t>
   </si>
   <si>
-    <t>000000067</t>
+    <t>703299310</t>
   </si>
   <si>
     <t>安静o o</t>
   </si>
   <si>
-    <t>000000068</t>
+    <t>708632510</t>
   </si>
   <si>
     <t>翼言</t>
   </si>
   <si>
-    <t>000000069</t>
+    <t>712151766</t>
   </si>
   <si>
     <t>是芒果酱吖٩۶</t>
   </si>
   <si>
-    <t>000000070</t>
+    <t>713012790</t>
   </si>
   <si>
     <t>青沐挽余寄笙歌</t>
   </si>
   <si>
-    <t>000000071</t>
+    <t>713973950</t>
   </si>
   <si>
     <t>忧伤落笔映浮华</t>
   </si>
   <si>
-    <t>000000072</t>
+    <t>719556094</t>
   </si>
   <si>
     <t>海渊·白发</t>
   </si>
   <si>
-    <t>000000073</t>
+    <t>722193126</t>
   </si>
   <si>
     <t>全开猛撞小火马</t>
   </si>
   <si>
-    <t>000000074</t>
+    <t>722524766</t>
   </si>
   <si>
     <t>七里香</t>
   </si>
   <si>
-    <t>000000075</t>
+    <t>722956254</t>
   </si>
   <si>
     <t>坦克『钧墨』</t>
   </si>
   <si>
-    <t>000000076</t>
+    <t>744414606</t>
   </si>
   <si>
     <t>我不是小饭团子</t>
   </si>
   <si>
-    <t>000000077</t>
+    <t>751721982</t>
   </si>
   <si>
     <t>国迷</t>
   </si>
   <si>
-    <t>000000078</t>
+    <t>751882150</t>
   </si>
   <si>
     <t>红烧绿豆</t>
   </si>
   <si>
-    <t>000000079</t>
+    <t>756464510</t>
   </si>
   <si>
     <t>不来就是满了</t>
   </si>
   <si>
-    <t>000000080</t>
+    <t>800022983</t>
   </si>
   <si>
     <t>许卿白头上上签</t>
   </si>
   <si>
-    <t>000000081</t>
+    <t>801719263</t>
   </si>
   <si>
     <t>水芽</t>
   </si>
   <si>
-    <t>000000082</t>
+    <t>806993863</t>
   </si>
   <si>
     <t>白上仙大王</t>
   </si>
   <si>
-    <t>000000083</t>
+    <t>809203751</t>
   </si>
   <si>
     <t>白都·星火江湖</t>
   </si>
   <si>
-    <t>000000084</t>
+    <t>812326311</t>
   </si>
   <si>
     <t>凉浸浸</t>
   </si>
   <si>
-    <t>000000085</t>
+    <t>817007183</t>
   </si>
   <si>
     <t>要不要吃羊</t>
   </si>
   <si>
-    <t>000000086</t>
+    <t>820872207</t>
   </si>
   <si>
     <t>幼稚园吃糖冠军</t>
   </si>
   <si>
-    <t>000000087</t>
+    <t>827872919</t>
   </si>
   <si>
     <t>一派秋声入寥廓</t>
   </si>
   <si>
-    <t>000000088</t>
+    <t>834024263</t>
   </si>
   <si>
     <t>智慧哥布林</t>
   </si>
   <si>
-    <t>000000089</t>
+    <t>846338023</t>
   </si>
   <si>
     <t>豆豆只想混</t>
   </si>
   <si>
-    <t>000000090</t>
+    <t>855575439</t>
   </si>
   <si>
     <t>方圆</t>
   </si>
   <si>
-    <t>000000091</t>
+    <t>856186183</t>
   </si>
   <si>
     <t>仙喵喵</t>
   </si>
   <si>
-    <t>000000092</t>
+    <t>857747351</t>
   </si>
   <si>
     <t>遮天、忏悔</t>
@@ -1243,9 +1243,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,7 +1559,7 @@
   <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+      <selection activeCell="A2" sqref="A2:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1588,7 +1585,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1602,7 +1599,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1616,7 +1613,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1630,7 +1627,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1644,7 +1641,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
@@ -1658,7 +1655,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1672,7 +1669,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1686,7 +1683,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1700,7 +1697,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1714,7 +1711,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1728,7 +1725,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1742,7 +1739,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1756,7 +1753,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1770,7 +1767,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1784,7 +1781,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1798,7 +1795,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1812,7 +1809,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1826,7 +1823,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1840,7 +1837,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1854,7 +1851,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1868,7 +1865,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1882,7 +1879,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1896,7 +1893,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
       <c r="B24" t="s">
@@ -1910,7 +1907,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1924,7 +1921,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="5" t="s">
+      <c r="A26" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1938,7 +1935,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1952,7 +1949,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1966,7 +1963,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1980,7 +1977,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1994,7 +1991,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="5" t="s">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2008,7 +2005,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="5" t="s">
+      <c r="A32" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2022,7 +2019,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="5" t="s">
+      <c r="A33" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2036,7 +2033,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="5" t="s">
+      <c r="A34" t="s">
         <v>70</v>
       </c>
       <c r="B34" t="s">
@@ -2050,7 +2047,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="5" t="s">
+      <c r="A35" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2064,7 +2061,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5" t="s">
+      <c r="A36" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2078,7 +2075,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="5" t="s">
+      <c r="A37" t="s">
         <v>76</v>
       </c>
       <c r="B37" t="s">
@@ -2092,7 +2089,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="5" t="s">
+      <c r="A38" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2106,7 +2103,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="5" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2120,7 +2117,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="5" t="s">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
       <c r="B40" t="s">
@@ -2134,7 +2131,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2148,7 +2145,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="5" t="s">
+      <c r="A42" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2162,7 +2159,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="5" t="s">
+      <c r="A43" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2176,7 +2173,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="5" t="s">
+      <c r="A44" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2190,7 +2187,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="5" t="s">
+      <c r="A45" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2204,7 +2201,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="5" t="s">
+      <c r="A46" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2218,7 +2215,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="5" t="s">
+      <c r="A47" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -2232,7 +2229,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
+      <c r="A48" t="s">
         <v>99</v>
       </c>
       <c r="B48" t="s">
@@ -2246,7 +2243,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
+      <c r="A49" t="s">
         <v>101</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2260,7 +2257,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
+      <c r="A50" t="s">
         <v>103</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2274,7 +2271,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
+      <c r="A51" t="s">
         <v>105</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -2288,7 +2285,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
+      <c r="A52" t="s">
         <v>107</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2302,7 +2299,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" t="s">
         <v>109</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -2316,7 +2313,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
+      <c r="A54" t="s">
         <v>111</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2330,7 +2327,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
+      <c r="A55" t="s">
         <v>113</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -2344,7 +2341,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
+      <c r="A56" t="s">
         <v>115</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2358,7 +2355,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
+      <c r="A57" t="s">
         <v>117</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -2372,7 +2369,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="5" t="s">
+      <c r="A58" t="s">
         <v>119</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2386,7 +2383,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5" t="s">
+      <c r="A59" t="s">
         <v>121</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2400,7 +2397,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
+      <c r="A60" t="s">
         <v>123</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2414,7 +2411,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
+      <c r="A61" t="s">
         <v>125</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2428,7 +2425,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
+      <c r="A62" t="s">
         <v>127</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2442,7 +2439,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="5" t="s">
+      <c r="A63" t="s">
         <v>129</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2456,7 +2453,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
+      <c r="A64" t="s">
         <v>131</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2470,7 +2467,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
+      <c r="A65" t="s">
         <v>133</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2484,7 +2481,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
+      <c r="A66" t="s">
         <v>135</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -2498,7 +2495,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
+      <c r="A67" t="s">
         <v>137</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2512,7 +2509,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
+      <c r="A68" t="s">
         <v>139</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -2526,7 +2523,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="5" t="s">
+      <c r="A69" t="s">
         <v>141</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2540,7 +2537,7 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="5" t="s">
+      <c r="A70" t="s">
         <v>143</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -2554,7 +2551,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="5" t="s">
+      <c r="A71" t="s">
         <v>145</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -2568,7 +2565,7 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
+      <c r="A72" t="s">
         <v>147</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -2582,7 +2579,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
+      <c r="A73" t="s">
         <v>149</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -2596,7 +2593,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="5" t="s">
+      <c r="A74" t="s">
         <v>151</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -2610,7 +2607,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="5" t="s">
+      <c r="A75" t="s">
         <v>153</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -2624,7 +2621,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="5" t="s">
+      <c r="A76" t="s">
         <v>155</v>
       </c>
       <c r="B76" t="s">
@@ -2638,7 +2635,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="5" t="s">
+      <c r="A77" t="s">
         <v>157</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -2652,7 +2649,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="5" t="s">
+      <c r="A78" t="s">
         <v>159</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -2666,7 +2663,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="5" t="s">
+      <c r="A79" t="s">
         <v>161</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -2680,7 +2677,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="5" t="s">
+      <c r="A80" t="s">
         <v>163</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -2694,7 +2691,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="5" t="s">
+      <c r="A81" t="s">
         <v>165</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -2708,7 +2705,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="5" t="s">
+      <c r="A82" t="s">
         <v>167</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -2722,7 +2719,7 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="5" t="s">
+      <c r="A83" t="s">
         <v>169</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -2736,7 +2733,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="5" t="s">
+      <c r="A84" t="s">
         <v>171</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -2750,7 +2747,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="5" t="s">
+      <c r="A85" t="s">
         <v>173</v>
       </c>
       <c r="B85" s="3" t="s">
@@ -2764,7 +2761,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="5" t="s">
+      <c r="A86" t="s">
         <v>175</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -2778,7 +2775,7 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="5" t="s">
+      <c r="A87" t="s">
         <v>177</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -2792,7 +2789,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="5" t="s">
+      <c r="A88" t="s">
         <v>179</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -2806,7 +2803,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="5" t="s">
+      <c r="A89" t="s">
         <v>181</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -2820,7 +2817,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="5" t="s">
+      <c r="A90" t="s">
         <v>183</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -2834,7 +2831,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="5" t="s">
+      <c r="A91" t="s">
         <v>185</v>
       </c>
       <c r="B91" t="s">
@@ -2848,7 +2845,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="5" t="s">
+      <c r="A92" t="s">
         <v>187</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -2862,7 +2859,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="5" t="s">
+      <c r="A93" t="s">
         <v>189</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -2876,7 +2873,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="5" t="s">
+      <c r="A94" t="s">
         <v>191</v>
       </c>
       <c r="B94" s="3" t="s">
